--- a/public/DOKUMENTASI/Database.xlsx
+++ b/public/DOKUMENTASI/Database.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SANDI\erp-warehouse-vertical\public\DOKUMENTASI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\erp-warehouse-vertical\public\DOKUMENTASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B85B5F-C257-4368-AA71-B818806234AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="54">
   <si>
     <t>satuan</t>
   </si>
@@ -121,9 +120,6 @@
     <t>keterangan</t>
   </si>
   <si>
-    <t>id_vendor</t>
-  </si>
-  <si>
     <t>id_user</t>
   </si>
   <si>
@@ -169,9 +165,6 @@
     <t>receive_detail</t>
   </si>
   <si>
-    <t>qty_terima</t>
-  </si>
-  <si>
     <t>users</t>
   </si>
   <si>
@@ -194,18 +187,6 @@
   </si>
   <si>
     <t>remember_token</t>
-  </si>
-  <si>
-    <t>vendor</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>no_tlp</t>
-  </si>
-  <si>
-    <t>alamat</t>
   </si>
   <si>
     <t>+</t>
@@ -217,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,7 +248,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,23 +339,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -410,23 +374,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -602,11 +549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25BCF4-6A7B-4226-A685-3BD1414D6B80}">
-  <dimension ref="A1:T111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="Y101" sqref="Y101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="T2" t="str">
         <f>$S$2&amp;$R$2&amp;A2</f>
@@ -725,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T66" si="0">$S$2&amp;$R$2&amp;A3</f>
+        <f t="shared" ref="T3:T65" si="0">$S$2&amp;$R$2&amp;A3</f>
         <v>+ tgl_masuk_gudang</v>
       </c>
     </row>
@@ -1250,7 +1197,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1719,18 +1666,18 @@
       </c>
       <c r="T27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ id_vendor</v>
+        <v>+ id_user</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1742,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1761,12 +1708,12 @@
       </c>
       <c r="T28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ id_user</v>
+        <v>+ created_at</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1803,12 +1750,12 @@
       </c>
       <c r="T29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ created_at</v>
+        <v>+ updated_at</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1845,87 +1792,87 @@
       </c>
       <c r="T30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ updated_at</v>
+        <v>+ deleted_at</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>-1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>+ deleted_at</v>
-      </c>
+      <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>-1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>+ id</v>
+      </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1934,10 +1881,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1948,15 +1895,21 @@
       <c r="K34">
         <v>0</v>
       </c>
+      <c r="M34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" t="s">
+        <v>13</v>
+      </c>
       <c r="P34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="T34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ id</v>
+        <v>+ kode_pengeluaran</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -1964,10 +1917,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1990,12 +1943,6 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" t="s">
-        <v>13</v>
-      </c>
       <c r="P35">
         <v>0</v>
       </c>
@@ -2004,18 +1951,18 @@
       </c>
       <c r="T35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ kode_pengeluaran</v>
+        <v>+ tgl_pengeluaran</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2038,6 +1985,12 @@
       <c r="K36">
         <v>0</v>
       </c>
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>13</v>
+      </c>
       <c r="P36">
         <v>0</v>
       </c>
@@ -2046,24 +1999,24 @@
       </c>
       <c r="T36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ tgl_pengeluaran</v>
+        <v>+ keterangan</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2094,18 +2047,18 @@
       </c>
       <c r="T37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ keterangan</v>
+        <v>+ status</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2117,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2128,12 +2081,6 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>12</v>
-      </c>
-      <c r="N38" t="s">
-        <v>13</v>
-      </c>
       <c r="P38">
         <v>0</v>
       </c>
@@ -2142,18 +2089,18 @@
       </c>
       <c r="T38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ status</v>
+        <v>+ id_user</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2165,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2184,12 +2131,12 @@
       </c>
       <c r="T39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ id_user</v>
+        <v>+ created_at</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
@@ -2226,12 +2173,12 @@
       </c>
       <c r="T40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ created_at</v>
+        <v>+ updated_at</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -2268,81 +2215,81 @@
       </c>
       <c r="T41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ updated_at</v>
+        <v>+ deleted_at</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>-1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="T42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>+ deleted_at</v>
-      </c>
+      <c r="T42" s="1"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>-1</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>-1</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>+ id</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
@@ -2354,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -2372,19 +2319,19 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="T45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ id</v>
+        <v>+ id_pengeluaran</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
@@ -2421,12 +2368,12 @@
       </c>
       <c r="T46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ id_pengeluaran</v>
+        <v>+ id_rak</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -2463,18 +2410,18 @@
       </c>
       <c r="T47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ id_rak</v>
+        <v>+ id_item</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2486,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2505,12 +2452,12 @@
       </c>
       <c r="T48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ id_item</v>
+        <v>+ qty</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2547,15 +2494,15 @@
       </c>
       <c r="T49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ qty</v>
+        <v>+ qty_acc</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2589,12 +2536,12 @@
       </c>
       <c r="T50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ qty_acc</v>
+        <v>+ created_at</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
@@ -2631,12 +2578,12 @@
       </c>
       <c r="T51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ created_at</v>
+        <v>+ updated_at</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -2673,87 +2620,87 @@
       </c>
       <c r="T52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ updated_at</v>
+        <v>+ deleted_at</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>-1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="T53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>+ deleted_at</v>
-      </c>
+      <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T54" s="1"/>
+      <c r="A54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>-1</v>
+      </c>
+      <c r="G55">
+        <v>-1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>-1</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>+ id</v>
+      </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2762,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2776,15 +2723,21 @@
       <c r="K56">
         <v>0</v>
       </c>
+      <c r="M56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56" t="s">
+        <v>13</v>
+      </c>
       <c r="P56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="T56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ id</v>
+        <v>+ no_rak</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -2832,18 +2785,18 @@
       </c>
       <c r="T57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ no_rak</v>
+        <v>+ lokasi</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2880,30 +2833,30 @@
       </c>
       <c r="T58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ lokasi</v>
+        <v>+ keterangan</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2914,12 +2867,6 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="M59" t="s">
-        <v>12</v>
-      </c>
-      <c r="N59" t="s">
-        <v>13</v>
-      </c>
       <c r="P59">
         <v>0</v>
       </c>
@@ -2928,18 +2875,18 @@
       </c>
       <c r="T59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ keterangan</v>
+        <v>+ id_item</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2951,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2970,12 +2917,12 @@
       </c>
       <c r="T60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ id_item</v>
+        <v>+ created_at</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -3012,12 +2959,12 @@
       </c>
       <c r="T61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ created_at</v>
+        <v>+ updated_at</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -3054,87 +3001,87 @@
       </c>
       <c r="T62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ updated_at</v>
+        <v>+ deleted_at</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>-1</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="T63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>+ deleted_at</v>
-      </c>
+      <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T64" s="1"/>
+      <c r="A64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>-1</v>
+      </c>
+      <c r="G65">
+        <v>-1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>-1</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>+ id</v>
+      </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3143,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3157,15 +3104,21 @@
       <c r="K66">
         <v>0</v>
       </c>
+      <c r="M66" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" t="s">
+        <v>13</v>
+      </c>
       <c r="P66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="T66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>+ id</v>
+        <f t="shared" ref="T66:T96" si="1">$S$2&amp;$R$2&amp;A66</f>
+        <v>+ kode_receive</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -3173,10 +3126,10 @@
         <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3199,12 +3152,6 @@
       <c r="K67">
         <v>0</v>
       </c>
-      <c r="M67" t="s">
-        <v>12</v>
-      </c>
-      <c r="N67" t="s">
-        <v>13</v>
-      </c>
       <c r="P67">
         <v>0</v>
       </c>
@@ -3212,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="T67" s="1" t="str">
-        <f t="shared" ref="T67:T111" si="1">$S$2&amp;$R$2&amp;A67</f>
-        <v>+ kode_receive</v>
+        <f t="shared" si="1"/>
+        <v>+ tgl_receive</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3246,6 +3193,12 @@
       </c>
       <c r="K68">
         <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" t="s">
+        <v>13</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -3255,24 +3208,24 @@
       </c>
       <c r="T68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ tgl_receive</v>
+        <v>+ keterangan</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3303,18 +3256,18 @@
       </c>
       <c r="T69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ keterangan</v>
+        <v>+ status</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3326,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3336,12 +3289,6 @@
       </c>
       <c r="K70">
         <v>0</v>
-      </c>
-      <c r="M70" t="s">
-        <v>12</v>
-      </c>
-      <c r="N70" t="s">
-        <v>13</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -3351,18 +3298,18 @@
       </c>
       <c r="T70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ status</v>
+        <v>+ id_user</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3374,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3393,18 +3340,18 @@
       </c>
       <c r="T71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ id_vendor</v>
+        <v>+ created_at</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C72">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3416,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3435,12 +3382,12 @@
       </c>
       <c r="T72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ id_user</v>
+        <v>+ updated_at</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
@@ -3477,504 +3424,516 @@
       </c>
       <c r="T73" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>+ deleted_at</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>-1</v>
+      </c>
+      <c r="G76">
+        <v>-1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>-1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>+ id</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>-1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>-1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>+ id_receive</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>-1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>-1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>+ id_item</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>-1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>+ qty</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>-1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="T80" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>+ created_at</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>22</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B81" t="s">
         <v>21</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>-1</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="T74" s="1" t="str">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>-1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ updated_at</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B82" t="s">
         <v>21</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>-1</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="T75" s="1" t="str">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>-1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ deleted_at</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T76" s="1"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>3</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B85" t="s">
         <v>4</v>
       </c>
-      <c r="C78">
+      <c r="C85">
         <v>20</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>-1</v>
-      </c>
-      <c r="G78">
-        <v>-1</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>-1</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="T78" s="1" t="str">
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>-1</v>
+      </c>
+      <c r="G85">
+        <v>-1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>-1</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="T85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ id</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79">
-        <v>20</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>-1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>-1</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="T79" s="1" t="str">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>255</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>12</v>
+      </c>
+      <c r="N86" t="s">
+        <v>13</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ id_receive</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80">
-        <v>20</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>-1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>-1</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="T80" s="1" t="str">
+        <v>+ name</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <v>255</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" t="s">
+        <v>13</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="T87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ id_item</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>-1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="T81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ qty</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>-1</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="T82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ qty_terima</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>-1</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="T83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ created_at</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>-1</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="T84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ updated_at</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>-1</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="T85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ deleted_at</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T86" s="1"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
+        <v>+ email</v>
+      </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C88">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3986,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="P88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="T88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ id</v>
+        <v>+ email_verified_at</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -4041,12 +4000,12 @@
       </c>
       <c r="T89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ name</v>
+        <v>+ password</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -4089,24 +4048,24 @@
       </c>
       <c r="T90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ email</v>
+        <v>+ roles</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4122,6 +4081,12 @@
       </c>
       <c r="K91">
         <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" t="s">
+        <v>13</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -4131,7 +4096,7 @@
       </c>
       <c r="T91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ email_verified_at</v>
+        <v>+ status</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -4142,13 +4107,13 @@
         <v>11</v>
       </c>
       <c r="C92">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4179,7 +4144,7 @@
       </c>
       <c r="T92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ password</v>
+        <v>+ foto</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -4190,13 +4155,13 @@
         <v>11</v>
       </c>
       <c r="C93">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4227,24 +4192,24 @@
       </c>
       <c r="T93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ roles</v>
+        <v>+ remember_token</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C94">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4260,12 +4225,6 @@
       </c>
       <c r="K94">
         <v>0</v>
-      </c>
-      <c r="M94" t="s">
-        <v>12</v>
-      </c>
-      <c r="N94" t="s">
-        <v>13</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -4275,18 +4234,18 @@
       </c>
       <c r="T94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ status</v>
+        <v>+ created_at</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C95">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4308,12 +4267,6 @@
       </c>
       <c r="K95">
         <v>0</v>
-      </c>
-      <c r="M95" t="s">
-        <v>12</v>
-      </c>
-      <c r="N95" t="s">
-        <v>13</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -4323,18 +4276,18 @@
       </c>
       <c r="T95" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ foto</v>
+        <v>+ updated_at</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C96">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4356,12 +4309,6 @@
       </c>
       <c r="K96">
         <v>0</v>
-      </c>
-      <c r="M96" t="s">
-        <v>12</v>
-      </c>
-      <c r="N96" t="s">
-        <v>13</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -4371,611 +4318,11 @@
       </c>
       <c r="T96" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+ remember_token</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>-1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="T97" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ created_at</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>-1</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="T98" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ updated_at</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>-1</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="T99" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>+ deleted_at</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T100" s="1"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102">
-        <v>20</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>-1</v>
-      </c>
-      <c r="G102">
-        <v>-1</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="P102">
-        <v>-1</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="T102" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ id</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103">
-        <v>64</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="M103" t="s">
-        <v>12</v>
-      </c>
-      <c r="N103" t="s">
-        <v>13</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="T103" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ nama</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>55</v>
-      </c>
-      <c r="B104" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104">
-        <v>64</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="M104" t="s">
-        <v>12</v>
-      </c>
-      <c r="N104" t="s">
-        <v>13</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="T104" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ pic</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105">
-        <v>64</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="M105" t="s">
-        <v>12</v>
-      </c>
-      <c r="N105" t="s">
-        <v>13</v>
-      </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="T105" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ email</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>56</v>
-      </c>
-      <c r="B106" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106">
-        <v>15</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="M106" t="s">
-        <v>12</v>
-      </c>
-      <c r="N106" t="s">
-        <v>13</v>
-      </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="T106" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ no_tlp</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107">
-        <v>128</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="M107" t="s">
-        <v>12</v>
-      </c>
-      <c r="N107" t="s">
-        <v>13</v>
-      </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="T107" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ alamat</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108">
-        <v>20</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>-1</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>-1</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="T108" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ id_user</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>-1</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="T109" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ created_at</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>22</v>
-      </c>
-      <c r="B110" t="s">
-        <v>21</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>-1</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="T110" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ updated_at</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" t="s">
-        <v>21</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>-1</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="T111" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>+ deleted_at</v>
-      </c>
+    <row r="97" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T97" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/DOKUMENTASI/Database.xlsx
+++ b/public/DOKUMENTASI/Database.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\erp-warehouse-vertical\public\DOKUMENTASI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SANDI\erp-warehouse-vertical\public\DOKUMENTASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3779C41-568B-4F74-8BCA-2DE878AF3D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
   <si>
     <t>satuan</t>
   </si>
@@ -193,12 +194,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>id_gudang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +252,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,6 +343,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -374,6 +395,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,12 +587,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -672,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T65" si="0">$S$2&amp;$R$2&amp;A3</f>
+        <f t="shared" ref="T3:T66" si="0">$S$2&amp;$R$2&amp;A3</f>
         <v>+ tgl_masuk_gudang</v>
       </c>
     </row>
@@ -2836,58 +2872,52 @@
         <v>+ keterangan</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="59" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>20</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>-1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>-1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
         <v>0</v>
       </c>
       <c r="T59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ id_item</v>
+        <v>+ id_gudang</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
         <v>20</v>
       </c>
-      <c r="B60" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
       <c r="D60">
         <v>0</v>
       </c>
@@ -2898,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2917,12 +2947,12 @@
       </c>
       <c r="T60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ created_at</v>
+        <v>+ id_item</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -2959,12 +2989,12 @@
       </c>
       <c r="T61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+ updated_at</v>
+        <v>+ created_at</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -3001,87 +3031,87 @@
       </c>
       <c r="T62" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>+ updated_at</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>-1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>+ deleted_at</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T63" s="1"/>
-    </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65">
-        <v>20</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>-1</v>
-      </c>
-      <c r="G65">
-        <v>-1</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>-1</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="T65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>+ id</v>
-      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3090,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3104,1227 +3134,1270 @@
       <c r="K66">
         <v>0</v>
       </c>
-      <c r="M66" t="s">
-        <v>12</v>
-      </c>
-      <c r="N66" t="s">
-        <v>13</v>
-      </c>
       <c r="P66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="T66" s="1" t="str">
-        <f t="shared" ref="T66:T96" si="1">$S$2&amp;$R$2&amp;A66</f>
-        <v>+ kode_receive</v>
+        <f t="shared" si="0"/>
+        <v>+ id</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>64</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" t="s">
+        <v>13</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1" t="str">
+        <f t="shared" ref="T67:T97" si="1">$S$2&amp;$R$2&amp;A67</f>
+        <v>+ kode_receive</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>42</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="T67" s="1" t="str">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ tgl_receive</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>28</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>128</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="M68" t="s">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
         <v>12</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N69" t="s">
         <v>13</v>
       </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="T68" s="1" t="str">
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ keterangan</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>33</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>11</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>25</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>-1</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="M69" t="s">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>-1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
         <v>12</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N70" t="s">
         <v>13</v>
       </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="T69" s="1" t="str">
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ status</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>29</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>20</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>-1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>-1</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="T70" s="1" t="str">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>-1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>-1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ id_user</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>20</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>21</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>-1</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="T71" s="1" t="str">
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>-1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ created_at</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>22</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>21</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>-1</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="T72" s="1" t="str">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>-1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ updated_at</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>23</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>21</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>-1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="T73" s="1" t="str">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>-1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ deleted_at</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T74" s="1"/>
-    </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>3</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>20</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>-1</v>
-      </c>
-      <c r="G76">
-        <v>-1</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>-1</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="T76" s="1" t="str">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>-1</v>
+      </c>
+      <c r="G77">
+        <v>-1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>-1</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ id</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>16</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>4</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>20</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>-1</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>-1</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="T77" s="1" t="str">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>-1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>-1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ id_receive</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>15</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>20</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>-1</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>-1</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="T78" s="1" t="str">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>-1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>-1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ id_item</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>7</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>8</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>-1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="T79" s="1" t="str">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>-1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="T80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ qty</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>20</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>21</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>-1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="T80" s="1" t="str">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>-1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ created_at</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>22</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>21</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>-1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="T81" s="1" t="str">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>-1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ updated_at</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>23</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>21</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>-1</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="T82" s="1" t="str">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>-1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="T83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ deleted_at</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T83" s="1"/>
-    </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>3</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>4</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>20</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>-1</v>
-      </c>
-      <c r="G85">
-        <v>-1</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>-1</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="T85" s="1" t="str">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>-1</v>
+      </c>
+      <c r="G86">
+        <v>-1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>-1</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ id</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>45</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>11</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>255</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="M86" t="s">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
         <v>12</v>
       </c>
-      <c r="N86" t="s">
+      <c r="N87" t="s">
         <v>13</v>
       </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="T86" s="1" t="str">
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="T87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ name</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>46</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>11</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>255</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="M87" t="s">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
         <v>12</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N88" t="s">
         <v>13</v>
       </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="T87" s="1" t="str">
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="T88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ email</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>47</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>21</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>-1</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="T88" s="1" t="str">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>-1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="T89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ email_verified_at</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>48</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>11</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>255</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="M89" t="s">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
         <v>12</v>
       </c>
-      <c r="N89" t="s">
+      <c r="N90" t="s">
         <v>13</v>
       </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="T89" s="1" t="str">
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="T90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ password</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>49</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>11</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>255</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="M90" t="s">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
         <v>12</v>
       </c>
-      <c r="N90" t="s">
+      <c r="N91" t="s">
         <v>13</v>
       </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="T90" s="1" t="str">
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="T91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ roles</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>33</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>11</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>255</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="M91" t="s">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
         <v>12</v>
       </c>
-      <c r="N91" t="s">
+      <c r="N92" t="s">
         <v>13</v>
       </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="T91" s="1" t="str">
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="T92" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ status</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>50</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>11</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>64</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>-1</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="M92" t="s">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>-1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
         <v>12</v>
       </c>
-      <c r="N92" t="s">
+      <c r="N93" t="s">
         <v>13</v>
       </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="T92" s="1" t="str">
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="T93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ foto</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>51</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>11</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>100</v>
       </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>-1</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="M93" t="s">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>-1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
         <v>12</v>
       </c>
-      <c r="N93" t="s">
+      <c r="N94" t="s">
         <v>13</v>
       </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="T93" s="1" t="str">
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="T94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ remember_token</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>20</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>21</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>-1</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="T94" s="1" t="str">
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>-1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="T95" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ created_at</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>22</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>21</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>-1</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="T95" s="1" t="str">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>-1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="T96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ updated_at</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>23</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>21</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>-1</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="T96" s="1" t="str">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>-1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="T97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>+ deleted_at</v>
       </c>
     </row>
-    <row r="97" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T97" s="1"/>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T98" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>